--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Mdk-Itga6.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Mdk-Itga6.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H2">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I2">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J2">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>89.99012030889941</v>
+        <v>147.4213356666667</v>
       </c>
       <c r="N2">
-        <v>89.99012030889941</v>
+        <v>442.264007</v>
       </c>
       <c r="O2">
-        <v>0.9273849957473647</v>
+        <v>0.9507885170992249</v>
       </c>
       <c r="P2">
-        <v>0.9273849957473647</v>
+        <v>0.950788517099225</v>
       </c>
       <c r="Q2">
-        <v>220.0808181365309</v>
+        <v>426.2694800463997</v>
       </c>
       <c r="R2">
-        <v>220.0808181365309</v>
+        <v>3836.425320417598</v>
       </c>
       <c r="S2">
-        <v>0.1138487723096702</v>
+        <v>0.115386787038498</v>
       </c>
       <c r="T2">
-        <v>0.1138487723096702</v>
+        <v>0.115386787038498</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H3">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I3">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J3">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.24801727924867</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N3">
-        <v>2.24801727924867</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O3">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="P3">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="Q3">
-        <v>5.497775536957234</v>
+        <v>6.768400389512223</v>
       </c>
       <c r="R3">
-        <v>5.497775536957234</v>
+        <v>60.91560350561001</v>
       </c>
       <c r="S3">
-        <v>0.002844023393844447</v>
+        <v>0.001832136737190106</v>
       </c>
       <c r="T3">
-        <v>0.002844023393844447</v>
+        <v>0.001832136737190106</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H4">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I4">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J4">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.79828279988916</v>
+        <v>5.289533666666667</v>
       </c>
       <c r="N4">
-        <v>4.79828279988916</v>
+        <v>15.868601</v>
       </c>
       <c r="O4">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540306</v>
       </c>
       <c r="P4">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540307</v>
       </c>
       <c r="Q4">
-        <v>11.73473266426579</v>
+        <v>15.29471128165711</v>
       </c>
       <c r="R4">
-        <v>11.73473266426579</v>
+        <v>137.652401534914</v>
       </c>
       <c r="S4">
-        <v>0.006070428665800601</v>
+        <v>0.004140121862066647</v>
       </c>
       <c r="T4">
-        <v>0.006070428665800601</v>
+        <v>0.004140121862066648</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H5">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I5">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J5">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>89.99012030889941</v>
+        <v>147.4213356666667</v>
       </c>
       <c r="N5">
-        <v>89.99012030889941</v>
+        <v>442.264007</v>
       </c>
       <c r="O5">
-        <v>0.9273849957473647</v>
+        <v>0.9507885170992249</v>
       </c>
       <c r="P5">
-        <v>0.9273849957473647</v>
+        <v>0.950788517099225</v>
       </c>
       <c r="Q5">
-        <v>1024.018969836749</v>
+        <v>1775.016223460558</v>
       </c>
       <c r="R5">
-        <v>1024.018969836749</v>
+        <v>15975.14601114503</v>
       </c>
       <c r="S5">
-        <v>0.5297295035744671</v>
+        <v>0.4804787313040294</v>
       </c>
       <c r="T5">
-        <v>0.5297295035744671</v>
+        <v>0.4804787313040295</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H6">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I6">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J6">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.24801727924867</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N6">
-        <v>2.24801727924867</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O6">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="P6">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="Q6">
-        <v>25.58072297902885</v>
+        <v>28.1840972920539</v>
       </c>
       <c r="R6">
-        <v>25.58072297902885</v>
+        <v>253.6568756284851</v>
       </c>
       <c r="S6">
-        <v>0.01323302017238726</v>
+        <v>0.00762914678235125</v>
       </c>
       <c r="T6">
-        <v>0.01323302017238726</v>
+        <v>0.00762914678235125</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H7">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I7">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J7">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.79828279988916</v>
+        <v>5.289533666666667</v>
       </c>
       <c r="N7">
-        <v>4.79828279988916</v>
+        <v>15.868601</v>
       </c>
       <c r="O7">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540306</v>
       </c>
       <c r="P7">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540307</v>
       </c>
       <c r="Q7">
-        <v>54.60080054190097</v>
+        <v>63.68825808296546</v>
       </c>
       <c r="R7">
-        <v>54.60080054190097</v>
+        <v>573.1943227466892</v>
       </c>
       <c r="S7">
-        <v>0.02824523355308619</v>
+        <v>0.0172397598614663</v>
       </c>
       <c r="T7">
-        <v>0.02824523355308619</v>
+        <v>0.01723975986146631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.09651549515173</v>
+        <v>8.894099000000001</v>
       </c>
       <c r="H8">
-        <v>6.09651549515173</v>
+        <v>26.682297</v>
       </c>
       <c r="I8">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143983</v>
       </c>
       <c r="J8">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143982</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.99012030889941</v>
+        <v>147.4213356666667</v>
       </c>
       <c r="N8">
-        <v>89.99012030889941</v>
+        <v>442.264007</v>
       </c>
       <c r="O8">
-        <v>0.9273849957473647</v>
+        <v>0.9507885170992249</v>
       </c>
       <c r="P8">
-        <v>0.9273849957473647</v>
+        <v>0.950788517099225</v>
       </c>
       <c r="Q8">
-        <v>548.6261628737736</v>
+        <v>1311.179954131565</v>
       </c>
       <c r="R8">
-        <v>548.6261628737736</v>
+        <v>11800.61958718408</v>
       </c>
       <c r="S8">
-        <v>0.2838067198632274</v>
+        <v>0.3549229987566975</v>
       </c>
       <c r="T8">
-        <v>0.2838067198632274</v>
+        <v>0.3549229987566975</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.09651549515173</v>
+        <v>8.894099000000001</v>
       </c>
       <c r="H9">
-        <v>6.09651549515173</v>
+        <v>26.682297</v>
       </c>
       <c r="I9">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143983</v>
       </c>
       <c r="J9">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143982</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.24801727924867</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N9">
-        <v>2.24801727924867</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O9">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="P9">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="Q9">
-        <v>13.70507217630835</v>
+        <v>20.81920317471167</v>
       </c>
       <c r="R9">
-        <v>13.70507217630835</v>
+        <v>187.372828572405</v>
       </c>
       <c r="S9">
-        <v>0.007089693935616705</v>
+        <v>0.005635545295830679</v>
       </c>
       <c r="T9">
-        <v>0.007089693935616705</v>
+        <v>0.005635545295830678</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.09651549515173</v>
+        <v>8.894099000000001</v>
       </c>
       <c r="H10">
-        <v>6.09651549515173</v>
+        <v>26.682297</v>
       </c>
       <c r="I10">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143983</v>
       </c>
       <c r="J10">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143982</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.79828279988916</v>
+        <v>5.289533666666667</v>
       </c>
       <c r="N10">
-        <v>4.79828279988916</v>
+        <v>15.868601</v>
       </c>
       <c r="O10">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540306</v>
       </c>
       <c r="P10">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540307</v>
       </c>
       <c r="Q10">
-        <v>29.25280543964429</v>
+        <v>47.04563609516634</v>
       </c>
       <c r="R10">
-        <v>29.25280543964429</v>
+        <v>423.4107248564971</v>
       </c>
       <c r="S10">
-        <v>0.01513260453190008</v>
+        <v>0.01273477236187011</v>
       </c>
       <c r="T10">
-        <v>0.01513260453190008</v>
+        <v>0.01273477236187011</v>
       </c>
     </row>
   </sheetData>
